--- a/EquityHedging/data/liq_alts/mgr_data_m.xlsx
+++ b/EquityHedging/data/liq_alts/mgr_data_m.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\RMP\EquityHedging\data\liq_alts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Documents\Projects\RMP\EquityHedging\data\liq_alts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0C02E5-CD24-48B3-9EA1-080ECE6AC3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mgr" sheetId="1" r:id="rId1"/>
     <sheet name="bny" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -136,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -390,23 +389,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -442,23 +424,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -634,11 +599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALM245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
@@ -6567,14 +6532,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALM200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V131" sqref="V131"/>
+      <selection pane="bottomRight" activeCell="F197" sqref="F197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13387,6 +13352,9 @@
       <c r="E152" s="1">
         <v>2.0830000000000002E-3</v>
       </c>
+      <c r="F152" s="1">
+        <v>4.1700000000000001E-2</v>
+      </c>
       <c r="G152" s="1">
         <v>-1.9108E-2</v>
       </c>
@@ -13455,6 +13423,9 @@
       <c r="E153" s="1">
         <v>-8.8929999999999999E-3</v>
       </c>
+      <c r="F153" s="1">
+        <v>8.0999999999999996E-3</v>
+      </c>
       <c r="G153" s="1">
         <v>2.4176E-2</v>
       </c>
@@ -13523,6 +13494,9 @@
       <c r="E154" s="1">
         <v>-4.5442000000000003E-2</v>
       </c>
+      <c r="F154" s="1">
+        <v>-7.4999999999999997E-3</v>
+      </c>
       <c r="G154" s="1">
         <v>8.7320000000000002E-3</v>
       </c>
@@ -13591,6 +13565,9 @@
       <c r="E155" s="1">
         <v>1.9545E-2</v>
       </c>
+      <c r="F155" s="1">
+        <v>3.1399999999999997E-2</v>
+      </c>
       <c r="G155" s="1">
         <v>-1.7989999999999999E-2</v>
       </c>
@@ -13659,6 +13636,9 @@
       <c r="E156" s="1">
         <v>-1.8107000000000002E-2</v>
       </c>
+      <c r="F156" s="1">
+        <v>-1.9599999999999999E-2</v>
+      </c>
       <c r="G156" s="1">
         <v>-3.6619999999999999E-3</v>
       </c>
@@ -13727,6 +13707,9 @@
       <c r="E157" s="1">
         <v>5.9099999999999995E-4</v>
       </c>
+      <c r="F157" s="1">
+        <v>-6.8999999999999999E-3</v>
+      </c>
       <c r="G157" s="1">
         <v>8.9420000000000003E-3</v>
       </c>
@@ -13795,6 +13778,9 @@
       <c r="E158" s="1">
         <v>-6.2399999999999999E-3</v>
       </c>
+      <c r="F158" s="1">
+        <v>-2.0000000000000001E-4</v>
+      </c>
       <c r="G158" s="1">
         <v>7.574E-3</v>
       </c>
@@ -13863,6 +13849,9 @@
       <c r="E159" s="1">
         <v>8.3479999999999995E-3</v>
       </c>
+      <c r="F159" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
       <c r="G159" s="1">
         <v>2.5420000000000002E-2</v>
       </c>
@@ -13931,6 +13920,9 @@
       <c r="E160" s="1">
         <v>6.9700000000000003E-4</v>
       </c>
+      <c r="F160" s="1">
+        <v>1.18E-2</v>
+      </c>
       <c r="G160" s="1">
         <v>2.2130000000000001E-3</v>
       </c>
@@ -13999,6 +13991,9 @@
       <c r="E161" s="1">
         <v>1.2165E-2</v>
       </c>
+      <c r="F161" s="1">
+        <v>-4.7000000000000002E-3</v>
+      </c>
       <c r="G161" s="1">
         <v>-4.0114999999999998E-2</v>
       </c>
@@ -14067,6 +14062,9 @@
       <c r="E162" s="1">
         <v>-3.4963000000000001E-2</v>
       </c>
+      <c r="F162" s="1">
+        <v>4.0500000000000001E-2</v>
+      </c>
       <c r="G162" s="1">
         <v>2.2338E-2</v>
       </c>
@@ -14135,6 +14133,9 @@
       <c r="E163" s="1">
         <v>1.0321E-2</v>
       </c>
+      <c r="F163" s="1">
+        <v>-2.0400000000000001E-2</v>
+      </c>
       <c r="G163" s="1">
         <v>7.4539999999999997E-3</v>
       </c>
@@ -14203,6 +14204,9 @@
       <c r="E164" s="1">
         <v>4.6584E-2</v>
       </c>
+      <c r="F164" s="1">
+        <v>3.6700000000000003E-2</v>
+      </c>
       <c r="G164" s="1">
         <v>-5.4939999999999998E-3</v>
       </c>
@@ -14271,6 +14275,9 @@
       <c r="E165" s="1">
         <v>1.6802999999999998E-2</v>
       </c>
+      <c r="F165" s="1">
+        <v>5.7000000000000002E-3</v>
+      </c>
       <c r="G165" s="1">
         <v>4.4390000000000002E-3</v>
       </c>
@@ -14339,6 +14346,9 @@
       <c r="E166" s="1">
         <v>1.5469E-2</v>
       </c>
+      <c r="F166" s="1">
+        <v>1.5599999999999999E-2</v>
+      </c>
       <c r="G166" s="1">
         <v>-1.5365999999999999E-2</v>
       </c>
@@ -14407,6 +14417,9 @@
       <c r="E167" s="1">
         <v>2.7127999999999999E-2</v>
       </c>
+      <c r="F167" s="1">
+        <v>2.8400000000000002E-2</v>
+      </c>
       <c r="G167" s="1">
         <v>2.6277999999999999E-2</v>
       </c>
@@ -14475,6 +14488,9 @@
       <c r="E168" s="1">
         <v>1.3929E-2</v>
       </c>
+      <c r="F168" s="1">
+        <v>6.9999999999999999E-4</v>
+      </c>
       <c r="G168" s="1">
         <v>-1.191E-2</v>
       </c>
@@ -14543,6 +14559,9 @@
       <c r="E169" s="1">
         <v>7.0427000000000003E-2</v>
       </c>
+      <c r="F169" s="1">
+        <v>1.66E-2</v>
+      </c>
       <c r="G169" s="1">
         <v>-2.9621000000000001E-2</v>
       </c>
@@ -14611,6 +14630,9 @@
       <c r="E170" s="1">
         <v>-4.4916999999999999E-2</v>
       </c>
+      <c r="F170" s="1">
+        <v>-1.2200000000000001E-2</v>
+      </c>
       <c r="G170" s="1">
         <v>8.0730000000000003E-3</v>
       </c>
@@ -14679,6 +14701,9 @@
       <c r="E171" s="1">
         <v>-4.2188000000000003E-2</v>
       </c>
+      <c r="F171" s="1">
+        <v>1.8499999999999999E-2</v>
+      </c>
       <c r="G171" s="1">
         <v>-3.1164000000000001E-2</v>
       </c>
@@ -14747,6 +14772,9 @@
       <c r="E172" s="1">
         <v>-2.5660000000000001E-3</v>
       </c>
+      <c r="F172" s="1">
+        <v>0</v>
+      </c>
       <c r="G172" s="1">
         <v>7.8060999999999992E-2</v>
       </c>
@@ -14815,6 +14843,9 @@
       <c r="E173" s="1">
         <v>-4.3189999999999999E-2</v>
       </c>
+      <c r="F173" s="1">
+        <v>-5.1000000000000004E-3</v>
+      </c>
       <c r="G173" s="1">
         <v>-1.2038999999999999E-2</v>
       </c>
@@ -14883,6 +14914,9 @@
       <c r="E174" s="1">
         <v>3.7684000000000002E-2</v>
       </c>
+      <c r="F174" s="1">
+        <v>1.77E-2</v>
+      </c>
       <c r="G174" s="1">
         <v>-3.954E-3</v>
       </c>
@@ -14951,6 +14985,9 @@
       <c r="E175" s="1">
         <v>2.8420999999999998E-2</v>
       </c>
+      <c r="F175" s="1">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="G175" s="1">
         <v>-1.1698999999999999E-2</v>
       </c>
@@ -15019,6 +15056,9 @@
       <c r="E176" s="1">
         <v>3.3001000000000003E-2</v>
       </c>
+      <c r="F176" s="1">
+        <v>3.2899999999999999E-2</v>
+      </c>
       <c r="G176" s="1">
         <v>-1.5559E-2</v>
       </c>
@@ -15090,6 +15130,9 @@
       <c r="E177" s="1">
         <v>-4.4415000000000003E-2</v>
       </c>
+      <c r="F177" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
       <c r="G177" s="1">
         <v>6.9995000000000002E-2</v>
       </c>
@@ -15161,6 +15204,9 @@
       <c r="E178" s="1">
         <v>-2.9478000000000001E-2</v>
       </c>
+      <c r="F178" s="1">
+        <v>1.66E-2</v>
+      </c>
       <c r="G178" s="1">
         <v>6.5239999999999994E-3</v>
       </c>
@@ -15232,6 +15278,9 @@
       <c r="E179" s="1">
         <v>-2.6806E-2</v>
       </c>
+      <c r="F179" s="1">
+        <v>3.95E-2</v>
+      </c>
       <c r="G179" s="1">
         <v>1.4139999999999999E-3</v>
       </c>
@@ -15303,6 +15352,9 @@
       <c r="E180" s="1">
         <v>2.8552999999999999E-2</v>
       </c>
+      <c r="F180" s="1">
+        <v>3.0200000000000001E-2</v>
+      </c>
       <c r="G180" s="1">
         <v>2.0841999999999999E-2</v>
       </c>
@@ -15374,6 +15426,9 @@
       <c r="E181" s="1">
         <v>-2.1821E-2</v>
       </c>
+      <c r="F181" s="1">
+        <v>1.47E-2</v>
+      </c>
       <c r="G181" s="1">
         <v>1.6774000000000001E-2</v>
       </c>
@@ -15445,6 +15500,9 @@
       <c r="E182" s="1">
         <v>-4.4817000000000003E-2</v>
       </c>
+      <c r="F182" s="1">
+        <v>8.0999999999999996E-3</v>
+      </c>
       <c r="G182" s="1">
         <v>-1.4803999999999999E-2</v>
       </c>
@@ -15515,6 +15573,9 @@
       </c>
       <c r="E183" s="1">
         <v>9.7450000000000002E-3</v>
+      </c>
+      <c r="F183" s="1">
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="G183" s="1">
         <v>1.0919E-2</v>
